--- a/Documentos/Tabela Ocorrencias.xlsx
+++ b/Documentos/Tabela Ocorrencias.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="88">
   <si>
     <t xml:space="preserve">TABELA OCORRENCIA</t>
   </si>
@@ -75,21 +75,33 @@
     <t xml:space="preserve">OBRIGATÓRIA APENAS SE FOR O TIPO DE ENDEREÇO PRINCIPAL</t>
   </si>
   <si>
-    <t xml:space="preserve">ENDERECO (revisar)</t>
+    <t xml:space="preserve">revisar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENDERECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocorr_endereco_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
   </si>
   <si>
     <t xml:space="preserve">ocorr_endereco_logradouro</t>
   </si>
   <si>
-    <t xml:space="preserve">FK</t>
-  </si>
-  <si>
     <t xml:space="preserve">ORIGINADO DO CADASTRO DE RUAS, OBRIGATÓRIO APENAS SE FOR O TIPO DE ENDEREÇO PRINCIPAL</t>
   </si>
   <si>
     <t xml:space="preserve">ocorr_endereco_numeral</t>
   </si>
   <si>
+    <t xml:space="preserve">STRING/int</t>
+  </si>
+  <si>
     <t xml:space="preserve">ocorr_endereco_referencia</t>
   </si>
   <si>
@@ -117,9 +129,6 @@
     <t xml:space="preserve">AQUI INFORMA SE É A OCORRÊNCIA PRINCIPAL OU É O RETORNO DE UMA OCORRÊNCIA</t>
   </si>
   <si>
-    <t xml:space="preserve">revisar</t>
-  </si>
-  <si>
     <t xml:space="preserve">OCORRENCIA</t>
   </si>
   <si>
@@ -219,18 +228,18 @@
     <t xml:space="preserve">CPF</t>
   </si>
   <si>
+    <t xml:space="preserve">telefone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
     <t xml:space="preserve">usar cpf ou passaporte…</t>
   </si>
   <si>
-    <t xml:space="preserve">telefone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
     <t xml:space="preserve">TABELA COBRADE</t>
   </si>
   <si>
@@ -255,16 +264,10 @@
     <t xml:space="preserve">ativa</t>
   </si>
   <si>
-    <t xml:space="preserve">bool</t>
-  </si>
-  <si>
     <t xml:space="preserve">TABELA USUARIO</t>
   </si>
   <si>
     <t xml:space="preserve">nivel de acesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cargo</t>
   </si>
   <si>
     <t xml:space="preserve">TABELA ENDERECO</t>
@@ -393,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,8 +465,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -483,10 +498,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I84"/>
+  <dimension ref="B2:I86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J62" activeCellId="0" sqref="J62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K67" activeCellId="0" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -594,31 +609,33 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="6"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
@@ -627,17 +644,19 @@
       <c r="G10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>15</v>
@@ -646,133 +665,131 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="F12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6"/>
-      <c r="C13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6"/>
       <c r="C15" s="3"/>
       <c r="D15" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="I16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="G18" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="6"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D19" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" s="9" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>37</v>
@@ -786,37 +803,37 @@
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6"/>
       <c r="C21" s="12"/>
       <c r="D21" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6"/>
       <c r="C22" s="12"/>
       <c r="D22" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
@@ -826,250 +843,260 @@
         <v>10</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="I23" s="2"/>
+      <c r="F23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0"/>
-      <c r="C24" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="6"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G25" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6"/>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6"/>
-      <c r="C28" s="12"/>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="9"/>
+        <v>52</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F28" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G28" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6"/>
       <c r="C29" s="12"/>
       <c r="D29" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6"/>
       <c r="C30" s="12"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="6"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6"/>
-      <c r="C32" s="12"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6"/>
       <c r="C33" s="12"/>
       <c r="D33" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="I33" s="2"/>
+      <c r="F33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="6"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>60</v>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="6"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-    </row>
+    <row r="37" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C39" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="2" t="s">
-        <v>63</v>
+      <c r="D41" s="16" t="s">
+        <v>65</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="16" t="s">
-        <v>64</v>
+      <c r="D42" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9" t="s">
@@ -1078,117 +1105,117 @@
       <c r="G42" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="0" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D43" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D45" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="0"/>
-      <c r="E46" s="0"/>
+      <c r="G46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C47" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C49" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="5"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-    </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>71</v>
-      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D51" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" s="9"/>
+        <v>73</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F51" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G51" s="9" t="s">
         <v>10</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D52" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9" t="s">
@@ -1200,7 +1227,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D53" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
@@ -1212,100 +1239,106 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D54" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="D56" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C59" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="5"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-    </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D60" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D61" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G61" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="16"/>
+      <c r="D62" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="F62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D63" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E63" s="9" t="s">
         <v>8</v>
@@ -1319,7 +1352,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D64" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9" t="s">
@@ -1330,8 +1363,8 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="17" t="s">
-        <v>79</v>
+      <c r="D65" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="3" t="s">
@@ -1342,77 +1375,63 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D66" s="0"/>
+      <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="0"/>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D68" s="0"/>
+      <c r="E68" s="4"/>
+    </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C70" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-    </row>
+    <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C72" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="5"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-    </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D74" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F74" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G74" s="9" t="s">
         <v>10</v>
@@ -1424,10 +1443,10 @@
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1436,68 +1455,68 @@
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D77" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C79" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-    </row>
+    <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C81" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F81" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="5"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-    </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D83" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" s="9"/>
+        <v>70</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="F83" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G83" s="9" t="s">
         <v>10</v>
@@ -1505,7 +1524,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D84" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9" t="s">
@@ -1515,6 +1534,22 @@
         <v>10</v>
       </c>
     </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D85" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="39">
     <mergeCell ref="C3:G3"/>
@@ -1523,39 +1558,39 @@
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Documentos/Tabela Ocorrencias.xlsx
+++ b/Documentos/Tabela Ocorrencias.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
     <t xml:space="preserve">TABELA OCORRENCIA</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t xml:space="preserve">nivel de acesso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">TABELA ENDERECO</t>
@@ -500,8 +503,8 @@
   </sheetPr>
   <dimension ref="B2:I86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K67" activeCellId="0" sqref="K67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1316,7 +1319,9 @@
       <c r="D61" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="F61" s="9" t="s">
         <v>9</v>
       </c>
@@ -1387,12 +1392,15 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="0"/>
       <c r="E68" s="4"/>
+      <c r="F68" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -1439,7 +1447,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D75" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
@@ -1451,7 +1459,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D76" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9" t="s">
@@ -1463,7 +1471,7 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D77" s="16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9" t="s">
@@ -1477,7 +1485,7 @@
     <row r="79" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C80" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -1536,7 +1544,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D85" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9" t="s">

--- a/Documentos/Tabela Ocorrencias.xlsx
+++ b/Documentos/Tabela Ocorrencias.xlsx
@@ -322,12 +322,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -399,7 +405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -454,6 +460,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -493,6 +515,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -501,10 +583,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I86"/>
+  <dimension ref="B2:N86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O30" activeCellId="0" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -946,19 +1028,25 @@
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6"/>
@@ -988,7 +1076,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6"/>
-      <c r="C32" s="14"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>58</v>
       </c>
@@ -1035,7 +1123,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="6"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="19"/>
       <c r="D35" s="8" t="s">
         <v>62</v>
       </c>
@@ -1086,7 +1174,7 @@
       <c r="G40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E41" s="9"/>
@@ -1110,7 +1198,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E43" s="9"/>
@@ -1122,7 +1210,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E44" s="9"/>
@@ -1134,7 +1222,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E45" s="9"/>
@@ -1146,7 +1234,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -1200,7 +1288,7 @@
       <c r="G50" s="3"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="20" t="s">
         <v>73</v>
       </c>
       <c r="E51" s="9" t="s">
@@ -1217,7 +1305,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="20" t="s">
         <v>75</v>
       </c>
       <c r="E52" s="9"/>
@@ -1229,7 +1317,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="20" t="s">
         <v>76</v>
       </c>
       <c r="E53" s="9"/>
@@ -1241,7 +1329,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="16" t="s">
+      <c r="D54" s="20" t="s">
         <v>77</v>
       </c>
       <c r="E54" s="9"/>
@@ -1253,7 +1341,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="20" t="s">
         <v>78</v>
       </c>
       <c r="E55" s="9"/>
@@ -1265,14 +1353,14 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17" t="s">
+      <c r="E56" s="21"/>
+      <c r="F56" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="17" t="s">
+      <c r="G56" s="21" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1316,7 +1404,7 @@
       <c r="G60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E61" s="9" t="s">
@@ -1330,7 +1418,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="20" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="9"/>
@@ -1342,7 +1430,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="16" t="s">
+      <c r="D63" s="20" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="9" t="s">
@@ -1356,7 +1444,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="16" t="s">
+      <c r="D64" s="20" t="s">
         <v>68</v>
       </c>
       <c r="E64" s="9"/>
@@ -1368,7 +1456,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="22" t="s">
         <v>81</v>
       </c>
       <c r="E65" s="9"/>
@@ -1384,10 +1472,10 @@
       <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D68" s="0"/>
@@ -1432,7 +1520,7 @@
       <c r="G73" s="3"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -1446,7 +1534,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="20" t="s">
         <v>84</v>
       </c>
       <c r="E75" s="9"/>
@@ -1458,7 +1546,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="20" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="9"/>
@@ -1470,7 +1558,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E77" s="9"/>
@@ -1517,7 +1605,7 @@
       <c r="G82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="20" t="s">
         <v>70</v>
       </c>
       <c r="E83" s="9" t="s">
@@ -1531,7 +1619,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="20" t="s">
         <v>69</v>
       </c>
       <c r="E84" s="9"/>
@@ -1543,7 +1631,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="16" t="s">
+      <c r="D85" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E85" s="9"/>
